--- a/Unity/DataTable.xlsx
+++ b/Unity/DataTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog" sheetId="1" r:id="rId1"/>
@@ -1659,63 +1659,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Images/Button/BookStage_Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageBarSelectBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/BookStage_Select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseDownBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/CloseButton_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseNormalBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/CloseButton_Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoDownBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/IngameGo_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoNormalBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/IngameGo_Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/021_P_YL_Theif_Nor_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>StageBarNormalBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/BookStage_Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StageBarSelectBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/BookStage_Select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseDownBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/CloseButton_Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseNormalBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/CloseButton_Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoDownBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/IngameGo_Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoNormalBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/IngameGo_Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/021_P_YL_Theif_Nor_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thief</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2584,7 +2584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
@@ -4261,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="58" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E60" s="58" t="s">
         <v>72</v>
@@ -7514,7 +7514,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9252,8 +9252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9378,10 +9378,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -9521,10 +9521,10 @@
         <v>205</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -9532,10 +9532,10 @@
         <v>206</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -9543,10 +9543,10 @@
         <v>207</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -9554,10 +9554,10 @@
         <v>208</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -9565,10 +9565,10 @@
         <v>209</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -9576,10 +9576,10 @@
         <v>210</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/DataTable.xlsx
+++ b/Unity/DataTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog" sheetId="1" r:id="rId1"/>
@@ -1651,71 +1651,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Images/Button/BackButton_Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/BookStage_Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageBarSelectBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/BookStage_Select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseDownBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/CloseButton_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseNormalBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/CloseButton_Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoDownBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/IngameGo_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoNormalBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/IngameGo_Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/021_P_YL_Theif_Nor_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageBarNormalBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BackNormalBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/BackButton_Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/BookStage_Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StageBarSelectBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/BookStage_Select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseDownBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/CloseButton_Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseNormalBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/CloseButton_Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoDownBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/IngameGo_Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoNormalBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/IngameGo_Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/021_P_YL_Theif_Nor_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StageBarNormalBtn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2584,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="10">
         <f>IF(E2="암흑술사 듀케",Duke,IF(E2="공포의 기사 {0}",HeroM,0))</f>
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="13">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="13">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="13">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="13">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="13">
         <v>0</v>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>333</v>
@@ -2857,8 +2857,8 @@
       <c r="B10" s="19">
         <v>1</v>
       </c>
-      <c r="C10" s="19">
-        <v>0</v>
+      <c r="C10" s="13">
+        <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>332</v>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11" s="10">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>333</v>
@@ -2942,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>332</v>
@@ -2970,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>333</v>
@@ -2998,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D15" s="13">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>332</v>
@@ -3054,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D17" s="13">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D18" s="13">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>332</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>333</v>
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D21" s="13">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>332</v>
@@ -3222,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>333</v>
@@ -3250,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D24" s="13">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>332</v>
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>333</v>
@@ -3333,8 +3333,8 @@
       <c r="B27" s="19">
         <v>1</v>
       </c>
-      <c r="C27" s="19">
-        <v>1</v>
+      <c r="C27" s="13">
+        <v>10</v>
       </c>
       <c r="D27" s="19">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="24">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>334</v>
@@ -3418,7 +3418,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="21">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>334</v>
@@ -3474,7 +3474,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>334</v>
@@ -3502,7 +3502,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>334</v>
@@ -3530,7 +3530,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>334</v>
@@ -3558,7 +3558,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="86">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D35" s="86">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D36" s="31">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="36">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="33">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>335</v>
@@ -3698,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="33">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="33" t="s">
         <v>335</v>
@@ -3754,7 +3754,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="40">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="89">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D43" s="89">
         <v>0</v>
@@ -3810,7 +3810,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="49">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="45">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="45" t="s">
         <v>336</v>
@@ -3894,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="45">
         <v>0</v>
@@ -3922,7 +3922,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="45" t="s">
         <v>337</v>
@@ -3949,8 +3949,8 @@
       <c r="B49" s="53">
         <v>4</v>
       </c>
-      <c r="C49" s="53">
-        <v>0</v>
+      <c r="C49" s="45">
+        <v>1</v>
       </c>
       <c r="D49" s="53">
         <v>0</v>
@@ -3978,7 +3978,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D50" s="49">
         <v>0</v>
@@ -4006,7 +4006,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="45">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D51" s="45">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="53">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D52" s="53" t="s">
         <v>338</v>
@@ -4062,7 +4062,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="58">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="55">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="55">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="55" t="s">
         <v>339</v>
@@ -4174,7 +4174,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="55">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="55" t="s">
         <v>334</v>
@@ -4229,8 +4229,8 @@
       <c r="B59" s="62">
         <v>5</v>
       </c>
-      <c r="C59" s="62">
-        <v>0</v>
+      <c r="C59" s="55">
+        <v>1</v>
       </c>
       <c r="D59" s="62">
         <v>0</v>
@@ -4258,10 +4258,10 @@
         <v>5</v>
       </c>
       <c r="C60" s="58">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D60" s="58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E60" s="58" t="s">
         <v>72</v>
@@ -4286,7 +4286,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="55">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D61" s="55">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="55">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D62" s="55">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="55">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D63" s="55" t="s">
         <v>340</v>
@@ -4370,7 +4370,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="55">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D64" s="55">
         <v>0</v>
@@ -4398,7 +4398,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="55">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D65" s="55" t="s">
         <v>341</v>
@@ -4426,7 +4426,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="55">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D66" s="55" t="s">
         <v>339</v>
@@ -4454,7 +4454,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="55">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D67" s="55">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="55">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D68" s="55" t="s">
         <v>342</v>
@@ -4510,7 +4510,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="55">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D69" s="55" t="s">
         <v>334</v>
@@ -4538,7 +4538,7 @@
         <v>5</v>
       </c>
       <c r="C70" s="55">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D70" s="55" t="s">
         <v>341</v>
@@ -4565,8 +4565,8 @@
       <c r="B71" s="62">
         <v>5</v>
       </c>
-      <c r="C71" s="62">
-        <v>1</v>
+      <c r="C71" s="55">
+        <v>10</v>
       </c>
       <c r="D71" s="62">
         <v>0</v>
@@ -4594,7 +4594,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="68" t="s">
         <v>342</v>
@@ -4622,7 +4622,7 @@
         <v>6</v>
       </c>
       <c r="C73" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="65" t="s">
         <v>339</v>
@@ -4650,7 +4650,7 @@
         <v>6</v>
       </c>
       <c r="C74" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="65">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>6</v>
       </c>
       <c r="C75" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="65">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>6</v>
       </c>
       <c r="C76" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" s="65" t="s">
         <v>334</v>
@@ -4734,7 +4734,7 @@
         <v>6</v>
       </c>
       <c r="C77" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="65" t="s">
         <v>339</v>
@@ -4762,7 +4762,7 @@
         <v>6</v>
       </c>
       <c r="C78" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="65">
         <v>0</v>
@@ -4790,7 +4790,7 @@
         <v>6</v>
       </c>
       <c r="C79" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" s="65" t="s">
         <v>343</v>
@@ -4818,7 +4818,7 @@
         <v>6</v>
       </c>
       <c r="C80" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="65">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>6</v>
       </c>
       <c r="C81" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="65">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>6</v>
       </c>
       <c r="C82" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="65" t="s">
         <v>339</v>
@@ -4902,7 +4902,7 @@
         <v>6</v>
       </c>
       <c r="C83" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="65">
         <v>0</v>
@@ -4929,8 +4929,8 @@
       <c r="B84" s="72">
         <v>6</v>
       </c>
-      <c r="C84" s="72">
-        <v>0</v>
+      <c r="C84" s="65">
+        <v>1</v>
       </c>
       <c r="D84" s="72">
         <v>0</v>
@@ -4958,7 +4958,7 @@
         <v>6</v>
       </c>
       <c r="C85" s="68">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D85" s="68">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>6</v>
       </c>
       <c r="C86" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D86" s="65">
         <v>0</v>
@@ -5014,7 +5014,7 @@
         <v>6</v>
       </c>
       <c r="C87" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D87" s="65" t="s">
         <v>343</v>
@@ -5042,7 +5042,7 @@
         <v>6</v>
       </c>
       <c r="C88" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D88" s="65" t="s">
         <v>344</v>
@@ -5070,7 +5070,7 @@
         <v>6</v>
       </c>
       <c r="C89" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D89" s="65">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>6</v>
       </c>
       <c r="C90" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D90" s="65" t="s">
         <v>342</v>
@@ -5126,7 +5126,7 @@
         <v>6</v>
       </c>
       <c r="C91" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D91" s="65" t="s">
         <v>345</v>
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="C92" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D92" s="65">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>6</v>
       </c>
       <c r="C93" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D93" s="65">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>6</v>
       </c>
       <c r="C94" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D94" s="65" t="s">
         <v>346</v>
@@ -5238,7 +5238,7 @@
         <v>6</v>
       </c>
       <c r="C95" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D95" s="65" t="s">
         <v>335</v>
@@ -5265,8 +5265,8 @@
       <c r="B96" s="72">
         <v>6</v>
       </c>
-      <c r="C96" s="72">
-        <v>1</v>
+      <c r="C96" s="65">
+        <v>10</v>
       </c>
       <c r="D96" s="72">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>7</v>
       </c>
       <c r="C97" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" s="77">
         <v>0</v>
@@ -5322,7 +5322,7 @@
         <v>7</v>
       </c>
       <c r="C98" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" s="74">
         <v>0</v>
@@ -5350,7 +5350,7 @@
         <v>7</v>
       </c>
       <c r="C99" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" s="74" t="s">
         <v>339</v>
@@ -5378,7 +5378,7 @@
         <v>7</v>
       </c>
       <c r="C100" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" s="74">
         <v>0</v>
@@ -5406,7 +5406,7 @@
         <v>7</v>
       </c>
       <c r="C101" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" s="74" t="s">
         <v>339</v>
@@ -5434,7 +5434,7 @@
         <v>7</v>
       </c>
       <c r="C102" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" s="74">
         <v>0</v>
@@ -5462,7 +5462,7 @@
         <v>7</v>
       </c>
       <c r="C103" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" s="74" t="s">
         <v>334</v>
@@ -5490,7 +5490,7 @@
         <v>7</v>
       </c>
       <c r="C104" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" s="74" t="s">
         <v>343</v>
@@ -5518,7 +5518,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" s="74" t="s">
         <v>334</v>
@@ -5546,7 +5546,7 @@
         <v>7</v>
       </c>
       <c r="C106" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" s="74" t="s">
         <v>342</v>
@@ -5574,7 +5574,7 @@
         <v>7</v>
       </c>
       <c r="C107" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" s="74" t="s">
         <v>339</v>
@@ -5602,7 +5602,7 @@
         <v>7</v>
       </c>
       <c r="C108" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" s="74">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>7</v>
       </c>
       <c r="C109" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" s="74" t="s">
         <v>334</v>
@@ -5658,7 +5658,7 @@
         <v>7</v>
       </c>
       <c r="C110" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" s="74" t="s">
         <v>342</v>
@@ -5685,8 +5685,8 @@
       <c r="B111" s="81">
         <v>7</v>
       </c>
-      <c r="C111" s="81">
-        <v>0</v>
+      <c r="C111" s="74">
+        <v>1</v>
       </c>
       <c r="D111" s="81" t="s">
         <v>334</v>
@@ -5714,7 +5714,7 @@
         <v>7</v>
       </c>
       <c r="C112" s="77">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D112" s="77" t="s">
         <v>334</v>
@@ -5742,7 +5742,7 @@
         <v>7</v>
       </c>
       <c r="C113" s="74">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D113" s="74" t="s">
         <v>343</v>
@@ -5770,7 +5770,7 @@
         <v>7</v>
       </c>
       <c r="C114" s="74">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D114" s="74" t="s">
         <v>339</v>
@@ -5798,7 +5798,7 @@
         <v>7</v>
       </c>
       <c r="C115" s="74">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D115" s="74" t="s">
         <v>347</v>
@@ -5825,8 +5825,8 @@
       <c r="B116" s="81">
         <v>7</v>
       </c>
-      <c r="C116" s="81">
-        <v>1</v>
+      <c r="C116" s="74">
+        <v>10</v>
       </c>
       <c r="D116" s="81" t="s">
         <v>334</v>
@@ -5854,7 +5854,7 @@
         <v>8</v>
       </c>
       <c r="C117" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" s="4">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>8</v>
       </c>
       <c r="C118" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" s="7">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>8</v>
       </c>
       <c r="C119" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>343</v>
@@ -5938,7 +5938,7 @@
         <v>8</v>
       </c>
       <c r="C120" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>339</v>
@@ -5966,7 +5966,7 @@
         <v>8</v>
       </c>
       <c r="C121" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" s="7">
         <v>0</v>
@@ -5994,7 +5994,7 @@
         <v>8</v>
       </c>
       <c r="C122" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>343</v>
@@ -6022,7 +6022,7 @@
         <v>8</v>
       </c>
       <c r="C123" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>339</v>
@@ -6050,7 +6050,7 @@
         <v>8</v>
       </c>
       <c r="C124" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>343</v>
@@ -6078,7 +6078,7 @@
         <v>8</v>
       </c>
       <c r="C125" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" s="7">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>8</v>
       </c>
       <c r="C126" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>348</v>
@@ -6134,7 +6134,7 @@
         <v>8</v>
       </c>
       <c r="C127" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" s="7">
         <v>0</v>
@@ -6162,7 +6162,7 @@
         <v>8</v>
       </c>
       <c r="C128" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>334</v>
@@ -6190,7 +6190,7 @@
         <v>8</v>
       </c>
       <c r="C129" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" s="7">
         <v>0</v>
@@ -6218,7 +6218,7 @@
         <v>8</v>
       </c>
       <c r="C130" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>334</v>
@@ -6246,7 +6246,7 @@
         <v>8</v>
       </c>
       <c r="C131" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>349</v>
@@ -6273,8 +6273,8 @@
       <c r="B132" s="84">
         <v>8</v>
       </c>
-      <c r="C132" s="84">
-        <v>0</v>
+      <c r="C132" s="7">
+        <v>1</v>
       </c>
       <c r="D132" s="84" t="s">
         <v>339</v>
@@ -6302,7 +6302,7 @@
         <v>8</v>
       </c>
       <c r="C133" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D133" s="4">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>8</v>
       </c>
       <c r="C134" s="84">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D134" s="84">
         <v>0</v>
@@ -6358,7 +6358,7 @@
         <v>9</v>
       </c>
       <c r="C135" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" s="10">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>9</v>
       </c>
       <c r="C136" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" s="13" t="s">
         <v>341</v>
@@ -6414,7 +6414,7 @@
         <v>9</v>
       </c>
       <c r="C137" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" s="13" t="s">
         <v>339</v>
@@ -6442,7 +6442,7 @@
         <v>9</v>
       </c>
       <c r="C138" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" s="13" t="s">
         <v>341</v>
@@ -6470,7 +6470,7 @@
         <v>9</v>
       </c>
       <c r="C139" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" s="13" t="s">
         <v>352</v>
@@ -6498,7 +6498,7 @@
         <v>9</v>
       </c>
       <c r="C140" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" s="13" t="s">
         <v>342</v>
@@ -6526,7 +6526,7 @@
         <v>9</v>
       </c>
       <c r="C141" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" s="13" t="s">
         <v>339</v>
@@ -6554,7 +6554,7 @@
         <v>9</v>
       </c>
       <c r="C142" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" s="13" t="s">
         <v>343</v>
@@ -6582,7 +6582,7 @@
         <v>9</v>
       </c>
       <c r="C143" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" s="13" t="s">
         <v>353</v>
@@ -6610,7 +6610,7 @@
         <v>9</v>
       </c>
       <c r="C144" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" s="13">
         <v>0</v>
@@ -6638,7 +6638,7 @@
         <v>9</v>
       </c>
       <c r="C145" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" s="13" t="s">
         <v>345</v>
@@ -6666,7 +6666,7 @@
         <v>9</v>
       </c>
       <c r="C146" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" s="13">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>9</v>
       </c>
       <c r="C147" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" s="13">
         <v>0</v>
@@ -6722,7 +6722,7 @@
         <v>9</v>
       </c>
       <c r="C148" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" s="13" t="s">
         <v>345</v>
@@ -6749,8 +6749,8 @@
       <c r="B149" s="19">
         <v>9</v>
       </c>
-      <c r="C149" s="19">
-        <v>0</v>
+      <c r="C149" s="13">
+        <v>1</v>
       </c>
       <c r="D149" s="19">
         <v>0</v>
@@ -6778,7 +6778,7 @@
         <v>9</v>
       </c>
       <c r="C150" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D150" s="10">
         <v>0</v>
@@ -6806,7 +6806,7 @@
         <v>9</v>
       </c>
       <c r="C151" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D151" s="13">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>9</v>
       </c>
       <c r="C152" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D152" s="13" t="s">
         <v>335</v>
@@ -6861,8 +6861,8 @@
       <c r="B153" s="19">
         <v>9</v>
       </c>
-      <c r="C153" s="19">
-        <v>1</v>
+      <c r="C153" s="13">
+        <v>10</v>
       </c>
       <c r="D153" s="19">
         <v>0</v>
@@ -6890,7 +6890,7 @@
         <v>10</v>
       </c>
       <c r="C154" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" s="24">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>10</v>
       </c>
       <c r="C155" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" s="21" t="s">
         <v>337</v>
@@ -6946,7 +6946,7 @@
         <v>10</v>
       </c>
       <c r="C156" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" s="21">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>10</v>
       </c>
       <c r="C157" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" s="21" t="s">
         <v>354</v>
@@ -7002,7 +7002,7 @@
         <v>10</v>
       </c>
       <c r="C158" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" s="21" t="s">
         <v>355</v>
@@ -7030,7 +7030,7 @@
         <v>10</v>
       </c>
       <c r="C159" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" s="21" t="s">
         <v>337</v>
@@ -7058,7 +7058,7 @@
         <v>10</v>
       </c>
       <c r="C160" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" s="21">
         <v>0</v>
@@ -7086,7 +7086,7 @@
         <v>10</v>
       </c>
       <c r="C161" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" s="21" t="s">
         <v>337</v>
@@ -7113,8 +7113,8 @@
       <c r="B162" s="31">
         <v>10</v>
       </c>
-      <c r="C162" s="31">
-        <v>0</v>
+      <c r="C162" s="21">
+        <v>1</v>
       </c>
       <c r="D162" s="31">
         <v>0</v>
@@ -7142,7 +7142,7 @@
         <v>10</v>
       </c>
       <c r="C163" s="24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D163" s="24">
         <v>0</v>
@@ -7170,7 +7170,7 @@
         <v>10</v>
       </c>
       <c r="C164" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D164" s="21" t="s">
         <v>356</v>
@@ -7198,7 +7198,7 @@
         <v>10</v>
       </c>
       <c r="C165" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D165" s="21" t="s">
         <v>357</v>
@@ -7226,7 +7226,7 @@
         <v>10</v>
       </c>
       <c r="C166" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D166" s="21">
         <v>0</v>
@@ -7254,7 +7254,7 @@
         <v>10</v>
       </c>
       <c r="C167" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D167" s="21" t="s">
         <v>358</v>
@@ -7282,7 +7282,7 @@
         <v>10</v>
       </c>
       <c r="C168" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D168" s="21" t="s">
         <v>337</v>
@@ -7310,7 +7310,7 @@
         <v>10</v>
       </c>
       <c r="C169" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D169" s="21" t="s">
         <v>358</v>
@@ -7338,7 +7338,7 @@
         <v>10</v>
       </c>
       <c r="C170" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D170" s="21" t="s">
         <v>337</v>
@@ -7366,7 +7366,7 @@
         <v>10</v>
       </c>
       <c r="C171" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D171" s="21" t="s">
         <v>358</v>
@@ -7394,7 +7394,7 @@
         <v>10</v>
       </c>
       <c r="C172" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D172" s="21">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>10</v>
       </c>
       <c r="C173" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D173" s="21" t="s">
         <v>337</v>
@@ -7450,7 +7450,7 @@
         <v>10</v>
       </c>
       <c r="C174" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D174" s="21" t="s">
         <v>356</v>
@@ -7478,7 +7478,7 @@
         <v>10</v>
       </c>
       <c r="C175" s="28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D175" s="28">
         <v>0</v>
@@ -7514,7 +7514,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9252,8 +9252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9378,10 +9378,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -9510,10 +9510,10 @@
         <v>204</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -9521,10 +9521,10 @@
         <v>205</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -9532,10 +9532,10 @@
         <v>206</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -9543,10 +9543,10 @@
         <v>207</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -9554,10 +9554,10 @@
         <v>208</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -9565,10 +9565,10 @@
         <v>209</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -9576,10 +9576,10 @@
         <v>210</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/DataTable.xlsx
+++ b/Unity/DataTable.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog" sheetId="1" r:id="rId1"/>
     <sheet name="Scenario" sheetId="2" r:id="rId2"/>
     <sheet name="ImageData" sheetId="3" r:id="rId3"/>
+    <sheet name="MonsterTable" sheetId="4" r:id="rId4"/>
+    <sheet name="PlayerLevelTable" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -180,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="443">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1716,6 +1718,93 @@
   </si>
   <si>
     <t>BackNormalBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivateEpi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon3</t>
+  </si>
+  <si>
+    <t>Mon4</t>
+  </si>
+  <si>
+    <t>Mon5</t>
+  </si>
+  <si>
+    <t>Mon6</t>
+  </si>
+  <si>
+    <t>Mon7</t>
+  </si>
+  <si>
+    <t>Mon8</t>
+  </si>
+  <si>
+    <t>Mon9</t>
+  </si>
+  <si>
+    <t>Mon10</t>
+  </si>
+  <si>
+    <t>Mon11</t>
+  </si>
+  <si>
+    <t>Mon12</t>
+  </si>
+  <si>
+    <t>Mon13</t>
+  </si>
+  <si>
+    <t>Mon14</t>
+  </si>
+  <si>
+    <t>Mon15</t>
+  </si>
+  <si>
+    <t>InactivateEpi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoseCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelUpCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1769,7 +1858,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1833,6 +1922,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2018,7 +2113,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2299,6 +2394,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2584,7 +2685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
@@ -9587,4 +9688,758 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="94" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1" s="94" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" s="94" t="s">
+        <v>439</v>
+      </c>
+      <c r="H1" s="94" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="1">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>90</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" s="1">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C11" s="1">
+        <v>80</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C12" s="1">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" s="1">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C15" s="1">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1">
+        <v>70</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C16" s="1">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="95" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unity/DataTable.xlsx
+++ b/Unity/DataTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="ImageData" sheetId="3" r:id="rId3"/>
     <sheet name="MonsterTable" sheetId="4" r:id="rId4"/>
     <sheet name="PlayerLevelTable" sheetId="5" r:id="rId5"/>
+    <sheet name="PrefabData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -182,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="455">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1805,6 +1806,54 @@
   </si>
   <si>
     <t>LevelUpCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UI/StartUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbyUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UI/LobbyUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UI/StageUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageBGUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniGameUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UI/StageBGUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UI/MiniGameUI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10133,7 +10182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -10442,4 +10491,91 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unity/DataTable.xlsx
+++ b/Unity/DataTable.xlsx
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="461">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1854,6 +1854,30 @@
   </si>
   <si>
     <t>Prefabs/UI/MiniGameUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MouseClick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effects/CFX_Explosion_B_Smoke+Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniGameWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effects/CFX2_PickupSmiley2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniGameLose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effects/CFX_Hit_A Red+RandomText</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10495,17 +10519,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -10572,6 +10596,39 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/DataTable.xlsx
+++ b/Unity/DataTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JK\JK_Unity_Kukgi\Unity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Unity_Kukgi\Unity\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF015EEB-18A7-4F1F-AA56-34143EE2697B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog" sheetId="1" r:id="rId1"/>
@@ -17,24 +18,33 @@
     <sheet name="ImageData" sheetId="3" r:id="rId3"/>
     <sheet name="MonsterTable" sheetId="4" r:id="rId4"/>
     <sheet name="PlayerLevelTable" sheetId="5" r:id="rId5"/>
-    <sheet name="PrefabData" sheetId="6" r:id="rId6"/>
+    <sheet name="UIData" sheetId="6" r:id="rId6"/>
+    <sheet name="EffectData" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>SBSgame</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="461">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1304,519 +1314,515 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eriya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KidHM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KidVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KidWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rugentar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG1</t>
+  </si>
+  <si>
+    <t>BG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG2</t>
+  </si>
+  <si>
+    <t>BG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG3</t>
+  </si>
+  <si>
+    <t>BG4</t>
+  </si>
+  <si>
+    <t>BG5</t>
+  </si>
+  <si>
+    <t>BG6</t>
+  </si>
+  <si>
     <t>ImageName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>WareWolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VampLord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KidHM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KidWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KidVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KidVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KidVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KidHM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KidHM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eriya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eriya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eriya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KidWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KidWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eriya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eriya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KidHM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eriya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 활약으로 테스타로사 저택이 안전하다는 소문이 주변에 퍼졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에리야가 무언가 다시 질문하려고 할 때, {0}이 검지손가락을 세워 입에 가져가 막았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KidHM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KidHM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WareWolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WareWolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rugentar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KidVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rugentar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/010_Duke_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/010_Eriya_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/010_HeroM_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/010_KidHM_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/010_KidVM_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/010_KidWM_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/010_Rugentar_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/021_P_GR_WareWolf_Nor_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/021_P_RD_VampLord_Nor_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Background/BG_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Background/BG_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Background/BG_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Background/BG_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Background/BG_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Background/BG_06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Background/StageSelectBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Background/StoryFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrowLeftBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/002_ArrowLeft_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrowRightBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/002_ArrowRight_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackDownBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/BackButton_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/BackButton_Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/BookStage_Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageBarSelectBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/BookStage_Select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseDownBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/CloseButton_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseNormalBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/CloseButton_Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoDownBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/IngameGo_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoNormalBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Button/IngameGo_Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/021_P_YL_Theif_Nor_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageBarNormalBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackNormalBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivateEpi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon3</t>
+  </si>
+  <si>
+    <t>Mon4</t>
+  </si>
+  <si>
+    <t>Mon5</t>
+  </si>
+  <si>
+    <t>Mon6</t>
+  </si>
+  <si>
+    <t>Mon7</t>
+  </si>
+  <si>
+    <t>Mon8</t>
+  </si>
+  <si>
+    <t>Mon9</t>
+  </si>
+  <si>
+    <t>Mon10</t>
+  </si>
+  <si>
+    <t>Mon11</t>
+  </si>
+  <si>
+    <t>Mon12</t>
+  </si>
+  <si>
+    <t>Mon13</t>
+  </si>
+  <si>
+    <t>Mon14</t>
+  </si>
+  <si>
+    <t>Mon15</t>
+  </si>
+  <si>
+    <t>InactivateEpi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoseCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelUpCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Location</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Duke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eriya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeroM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KidHM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KidVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KidWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rugentar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG1</t>
-  </si>
-  <si>
-    <t>BG1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG2</t>
-  </si>
-  <si>
-    <t>BG2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG3</t>
-  </si>
-  <si>
-    <t>BG4</t>
-  </si>
-  <si>
-    <t>BG5</t>
-  </si>
-  <si>
-    <t>BG6</t>
-  </si>
-  <si>
-    <t>ImageName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WareWolf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VampLord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeroM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KidHM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KidWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KidVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KidVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KidVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KidHM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KidHM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eriya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eriya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eriya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KidWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KidWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eriya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eriya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KidHM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eriya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}의 활약으로 테스타로사 저택이 안전하다는 소문이 주변에 퍼졌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에리야가 무언가 다시 질문하려고 할 때, {0}이 검지손가락을 세워 입에 가져가 막았다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KidHM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KidHM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WareWolf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WareWolf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rugentar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KidVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rugentar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectBG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/010_Duke_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/010_Eriya_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/010_HeroM_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/010_KidHM_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/010_KidVM_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/010_KidWM_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/010_Rugentar_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/021_P_GR_WareWolf_Nor_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/021_P_RD_VampLord_Nor_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Background/BG_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Background/BG_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Background/BG_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Background/BG_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Background/BG_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Background/BG_06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Background/StageSelectBG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Background/StoryFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrowLeftBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/002_ArrowLeft_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrowRightBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/002_ArrowRight_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackDownBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/BackButton_Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/BackButton_Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/BookStage_Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StageBarSelectBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/BookStage_Select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseDownBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/CloseButton_Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseNormalBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/CloseButton_Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoDownBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/IngameGo_Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoNormalBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Button/IngameGo_Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/021_P_YL_Theif_Nor_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StageBarNormalBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackNormalBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_Rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R_Rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_Rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActivateEpi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon3</t>
-  </si>
-  <si>
-    <t>Mon4</t>
-  </si>
-  <si>
-    <t>Mon5</t>
-  </si>
-  <si>
-    <t>Mon6</t>
-  </si>
-  <si>
-    <t>Mon7</t>
-  </si>
-  <si>
-    <t>Mon8</t>
-  </si>
-  <si>
-    <t>Mon9</t>
-  </si>
-  <si>
-    <t>Mon10</t>
-  </si>
-  <si>
-    <t>Mon11</t>
-  </si>
-  <si>
-    <t>Mon12</t>
-  </si>
-  <si>
-    <t>Mon13</t>
-  </si>
-  <si>
-    <t>Mon14</t>
-  </si>
-  <si>
-    <t>Mon15</t>
-  </si>
-  <si>
-    <t>InactivateEpi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoseCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelUpCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StartUI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1878,13 +1884,17 @@
   </si>
   <si>
     <t>Prefabs/Effects/CFX_Hit_A Red+RandomText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2755,7 +2765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -2784,7 +2794,7 @@
         <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -3007,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>12</v>
@@ -3035,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>14</v>
@@ -3091,7 +3101,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>19</v>
@@ -3119,7 +3129,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>14</v>
@@ -3147,7 +3157,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>19</v>
@@ -3203,7 +3213,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>14</v>
@@ -3287,7 +3297,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>14</v>
@@ -3315,7 +3325,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>19</v>
@@ -3371,7 +3381,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>14</v>
@@ -3399,7 +3409,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>19</v>
@@ -3455,7 +3465,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>14</v>
@@ -3483,7 +3493,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>19</v>
@@ -3567,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>37</v>
@@ -3623,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>37</v>
@@ -3651,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>37</v>
@@ -3679,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>37</v>
@@ -3707,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>37</v>
@@ -3847,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E39" s="33" t="s">
         <v>37</v>
@@ -3903,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>37</v>
@@ -4043,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E46" s="45" t="s">
         <v>37</v>
@@ -4099,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E48" s="45" t="s">
         <v>37</v>
@@ -4211,7 +4221,7 @@
         <v>10</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E52" s="53" t="s">
         <v>37</v>
@@ -4323,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E56" s="55" t="s">
         <v>37</v>
@@ -4379,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E58" s="55" t="s">
         <v>37</v>
@@ -4435,7 +4445,7 @@
         <v>10</v>
       </c>
       <c r="D60" s="58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E60" s="58" t="s">
         <v>72</v>
@@ -4519,7 +4529,7 @@
         <v>10</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E63" s="55" t="s">
         <v>37</v>
@@ -4575,7 +4585,7 @@
         <v>10</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E65" s="55" t="s">
         <v>76</v>
@@ -4603,7 +4613,7 @@
         <v>10</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E66" s="55" t="s">
         <v>37</v>
@@ -4659,7 +4669,7 @@
         <v>10</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E68" s="55" t="s">
         <v>80</v>
@@ -4687,7 +4697,7 @@
         <v>10</v>
       </c>
       <c r="D69" s="55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E69" s="55" t="s">
         <v>82</v>
@@ -4715,7 +4725,7 @@
         <v>10</v>
       </c>
       <c r="D70" s="55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E70" s="55" t="s">
         <v>80</v>
@@ -4771,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E72" s="68" t="s">
         <v>80</v>
@@ -4799,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="65" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E73" s="65" t="s">
         <v>82</v>
@@ -4883,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E76" s="65" t="s">
         <v>82</v>
@@ -4911,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="65" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E77" s="65" t="s">
         <v>37</v>
@@ -4967,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E79" s="65" t="s">
         <v>80</v>
@@ -5051,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="65" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E82" s="65" t="s">
         <v>82</v>
@@ -5191,7 +5201,7 @@
         <v>10</v>
       </c>
       <c r="D87" s="65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>103</v>
@@ -5219,7 +5229,7 @@
         <v>10</v>
       </c>
       <c r="D88" s="65" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E88" s="65" t="s">
         <v>82</v>
@@ -5275,7 +5285,7 @@
         <v>10</v>
       </c>
       <c r="D90" s="65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E90" s="65" t="s">
         <v>107</v>
@@ -5303,7 +5313,7 @@
         <v>10</v>
       </c>
       <c r="D91" s="65" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E91" s="65" t="s">
         <v>37</v>
@@ -5387,7 +5397,7 @@
         <v>10</v>
       </c>
       <c r="D94" s="65" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E94" s="65" t="s">
         <v>124</v>
@@ -5415,7 +5425,7 @@
         <v>10</v>
       </c>
       <c r="D95" s="65" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E95" s="65" t="s">
         <v>82</v>
@@ -5527,7 +5537,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E99" s="74" t="s">
         <v>82</v>
@@ -5583,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E101" s="74" t="s">
         <v>82</v>
@@ -5639,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E103" s="74" t="s">
         <v>37</v>
@@ -5667,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E104" s="74" t="s">
         <v>124</v>
@@ -5695,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E105" s="74" t="s">
         <v>37</v>
@@ -5723,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="74" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E106" s="74" t="s">
         <v>124</v>
@@ -5751,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E107" s="74" t="s">
         <v>37</v>
@@ -5807,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E109" s="74" t="s">
         <v>37</v>
@@ -5835,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="74" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E110" s="74" t="s">
         <v>124</v>
@@ -5863,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="81" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E111" s="81" t="s">
         <v>37</v>
@@ -5891,7 +5901,7 @@
         <v>10</v>
       </c>
       <c r="D112" s="77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E112" s="77" t="s">
         <v>135</v>
@@ -5919,7 +5929,7 @@
         <v>10</v>
       </c>
       <c r="D113" s="74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E113" s="74" t="s">
         <v>124</v>
@@ -5947,7 +5957,7 @@
         <v>10</v>
       </c>
       <c r="D114" s="74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E114" s="74" t="s">
         <v>135</v>
@@ -5975,7 +5985,7 @@
         <v>10</v>
       </c>
       <c r="D115" s="74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E115" s="74" t="s">
         <v>124</v>
@@ -6003,7 +6013,7 @@
         <v>10</v>
       </c>
       <c r="D116" s="81" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E116" s="81" t="s">
         <v>135</v>
@@ -6087,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>124</v>
@@ -6115,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>144</v>
@@ -6171,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>124</v>
@@ -6199,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>148</v>
@@ -6227,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>124</v>
@@ -6283,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>144</v>
@@ -6339,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>37</v>
@@ -6395,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>37</v>
@@ -6423,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>124</v>
@@ -6451,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="D132" s="84" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E132" s="84" t="s">
         <v>37</v>
@@ -6485,7 +6495,7 @@
         <v>85</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G133" s="4">
         <f t="shared" si="4"/>
@@ -6563,7 +6573,7 @@
         <v>1</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E136" s="13" t="s">
         <v>124</v>
@@ -6591,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E137" s="13" t="s">
         <v>82</v>
@@ -6619,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E138" s="13" t="s">
         <v>124</v>
@@ -6647,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E139" s="13" t="s">
         <v>82</v>
@@ -6675,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E140" s="13" t="s">
         <v>124</v>
@@ -6703,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E141" s="13" t="s">
         <v>82</v>
@@ -6731,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E142" s="13" t="s">
         <v>124</v>
@@ -6759,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E143" s="13" t="s">
         <v>166</v>
@@ -6793,7 +6803,7 @@
         <v>85</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G144" s="13">
         <f t="shared" si="4"/>
@@ -6815,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E145" s="13" t="s">
         <v>82</v>
@@ -6899,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E148" s="13" t="s">
         <v>82</v>
@@ -7011,7 +7021,7 @@
         <v>10</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E152" s="13" t="s">
         <v>37</v>
@@ -7095,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E155" s="21" t="s">
         <v>37</v>
@@ -7151,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E157" s="21" t="s">
         <v>180</v>
@@ -7179,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E158" s="21" t="s">
         <v>180</v>
@@ -7207,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E159" s="21" t="s">
         <v>184</v>
@@ -7263,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E161" s="21" t="s">
         <v>37</v>
@@ -7347,7 +7357,7 @@
         <v>10</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E164" s="21" t="s">
         <v>190</v>
@@ -7375,7 +7385,7 @@
         <v>10</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E165" s="21" t="s">
         <v>82</v>
@@ -7431,7 +7441,7 @@
         <v>10</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E167" s="21" t="s">
         <v>194</v>
@@ -7459,7 +7469,7 @@
         <v>10</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E168" s="21" t="s">
         <v>82</v>
@@ -7487,7 +7497,7 @@
         <v>10</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E169" s="21" t="s">
         <v>197</v>
@@ -7515,7 +7525,7 @@
         <v>10</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E170" s="21" t="s">
         <v>37</v>
@@ -7543,7 +7553,7 @@
         <v>10</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E171" s="21" t="s">
         <v>197</v>
@@ -7599,7 +7609,7 @@
         <v>10</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E173" s="21" t="s">
         <v>202</v>
@@ -7627,7 +7637,7 @@
         <v>10</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E174" s="21" t="s">
         <v>197</v>
@@ -7675,7 +7685,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F60" r:id="rId1"/>
+    <hyperlink ref="F60" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7684,7 +7694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7713,7 +7723,7 @@
         <v>209</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7730,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7747,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7764,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7781,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7798,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7815,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7832,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7849,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7866,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="85" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7883,7 +7893,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -7900,7 +7910,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -7917,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -7934,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -7951,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -7968,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -7985,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -8002,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -8019,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -8036,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8053,7 +8063,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
@@ -8070,7 +8080,7 @@
         <v>36</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8087,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8104,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8121,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8138,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8155,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8172,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8189,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8206,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="86" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="32" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8223,7 +8233,7 @@
         <v>42</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
@@ -8240,7 +8250,7 @@
         <v>43</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
@@ -8257,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
@@ -8274,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
@@ -8291,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
@@ -8308,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
@@ -8325,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
@@ -8342,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
@@ -8359,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
@@ -8376,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="44" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8393,7 +8403,7 @@
         <v>49</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.3">
@@ -8410,7 +8420,7 @@
         <v>52</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
@@ -8427,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
@@ -8444,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
@@ -8461,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
@@ -8478,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
@@ -8495,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
@@ -8512,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
@@ -8529,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
@@ -8546,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="54" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8563,7 +8573,7 @@
         <v>59</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="59" customFormat="1" x14ac:dyDescent="0.3">
@@ -8580,7 +8590,7 @@
         <v>71</v>
       </c>
       <c r="E52" s="58" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.3">
@@ -8597,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.3">
@@ -8614,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.3">
@@ -8631,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.3">
@@ -8648,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.3">
@@ -8665,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.3">
@@ -8682,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.3">
@@ -8699,7 +8709,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.3">
@@ -8716,7 +8726,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="63" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8733,7 +8743,7 @@
         <v>84</v>
       </c>
       <c r="E61" s="55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="69" customFormat="1" x14ac:dyDescent="0.3">
@@ -8750,7 +8760,7 @@
         <v>96</v>
       </c>
       <c r="E62" s="68" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.3">
@@ -8767,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.3">
@@ -8784,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="65" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.3">
@@ -8801,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.3">
@@ -8818,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.3">
@@ -8835,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.3">
@@ -8852,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.3">
@@ -8869,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.3">
@@ -8886,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="73" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8903,7 +8913,7 @@
         <v>111</v>
       </c>
       <c r="E71" s="65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="78" customFormat="1" x14ac:dyDescent="0.3">
@@ -8920,7 +8930,7 @@
         <v>116</v>
       </c>
       <c r="E72" s="77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="75" customFormat="1" x14ac:dyDescent="0.3">
@@ -8937,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="74" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="75" customFormat="1" x14ac:dyDescent="0.3">
@@ -8954,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="74" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="75" customFormat="1" x14ac:dyDescent="0.3">
@@ -8971,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="75" customFormat="1" x14ac:dyDescent="0.3">
@@ -8988,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="75" customFormat="1" x14ac:dyDescent="0.3">
@@ -9005,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="75" customFormat="1" x14ac:dyDescent="0.3">
@@ -9022,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="75" customFormat="1" x14ac:dyDescent="0.3">
@@ -9039,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="75" customFormat="1" x14ac:dyDescent="0.3">
@@ -9056,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="82" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9073,7 +9083,7 @@
         <v>132</v>
       </c>
       <c r="E81" s="74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9090,7 +9100,7 @@
         <v>134</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9107,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9124,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9141,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9158,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9175,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9192,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9209,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9226,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="85" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9243,7 +9253,7 @@
         <v>149</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -9260,7 +9270,7 @@
         <v>153</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -9277,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -9294,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -9311,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -9328,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -9345,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -9362,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -9379,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -9396,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9413,7 +9423,7 @@
         <v>162</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -9423,11 +9433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9442,10 +9452,10 @@
         <v>311</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -9453,10 +9463,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -9464,10 +9474,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -9475,10 +9485,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -9486,10 +9496,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -9497,10 +9507,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -9508,10 +9518,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -9519,10 +9529,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -9530,10 +9540,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -9541,10 +9551,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -9552,10 +9562,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -9563,10 +9573,10 @@
         <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -9574,10 +9584,10 @@
         <v>102</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -9585,10 +9595,10 @@
         <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -9596,10 +9606,10 @@
         <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -9607,10 +9617,10 @@
         <v>105</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -9618,10 +9628,10 @@
         <v>106</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -9629,10 +9639,10 @@
         <v>107</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -9640,10 +9650,10 @@
         <v>108</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -9651,10 +9661,10 @@
         <v>201</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -9662,10 +9672,10 @@
         <v>202</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -9673,10 +9683,10 @@
         <v>203</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -9684,10 +9694,10 @@
         <v>204</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -9695,10 +9705,10 @@
         <v>205</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -9706,10 +9716,10 @@
         <v>206</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -9717,10 +9727,10 @@
         <v>207</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -9728,10 +9738,10 @@
         <v>208</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -9739,10 +9749,10 @@
         <v>209</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -9750,10 +9760,10 @@
         <v>210</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -9764,7 +9774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9784,25 +9794,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="94" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1" s="94" t="s">
         <v>418</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="E1" s="94" t="s">
         <v>420</v>
       </c>
-      <c r="D1" s="94" t="s">
-        <v>419</v>
-      </c>
-      <c r="E1" s="94" t="s">
+      <c r="F1" s="94" t="s">
         <v>421</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="G1" s="94" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1" s="94" t="s">
         <v>422</v>
-      </c>
-      <c r="G1" s="94" t="s">
-        <v>439</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -9810,7 +9820,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C2" s="1">
         <v>40</v>
@@ -9836,7 +9846,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C3" s="1">
         <v>40</v>
@@ -9862,7 +9872,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -9888,7 +9898,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -9914,7 +9924,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C6" s="1">
         <v>60</v>
@@ -9940,7 +9950,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -9966,7 +9976,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C8" s="1">
         <v>30</v>
@@ -9992,7 +10002,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C9" s="1">
         <v>25</v>
@@ -10018,7 +10028,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C10" s="1">
         <v>25</v>
@@ -10044,7 +10054,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C11" s="1">
         <v>80</v>
@@ -10070,7 +10080,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C12" s="1">
         <v>25</v>
@@ -10096,7 +10106,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C13" s="1">
         <v>50</v>
@@ -10122,7 +10132,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C14" s="1">
         <v>10</v>
@@ -10148,7 +10158,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C15" s="1">
         <v>15</v>
@@ -10174,7 +10184,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C16" s="1">
         <v>25</v>
@@ -10203,7 +10213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10222,13 +10232,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="94" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1" s="94" t="s">
         <v>440</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="D1" s="94" t="s">
         <v>441</v>
-      </c>
-      <c r="D1" s="94" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -10518,11 +10528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10537,10 +10547,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -10548,10 +10558,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -10559,10 +10569,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -10570,10 +10580,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -10581,10 +10591,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -10592,47 +10602,91 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F9AD91-E978-429D-B03C-8398DDF995CE}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Unity/DataTable.xlsx
+++ b/Unity/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Unity_Kukgi\Unity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF015EEB-18A7-4F1F-AA56-34143EE2697B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E198528E-DDC3-4A59-A9C0-EAC9DDD3BD94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="2160" windowWidth="20865" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,7 @@
     <sheet name="ImageData" sheetId="3" r:id="rId3"/>
     <sheet name="MonsterTable" sheetId="4" r:id="rId4"/>
     <sheet name="PlayerLevelTable" sheetId="5" r:id="rId5"/>
-    <sheet name="UIData" sheetId="6" r:id="rId6"/>
-    <sheet name="EffectData" sheetId="7" r:id="rId7"/>
+    <sheet name="PrefabData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -193,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="460">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1884,10 +1883,6 @@
   </si>
   <si>
     <t>Prefabs/Effects/CFX_Hit_A Red+RandomText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9777,7 +9772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -10529,10 +10524,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10540,9 +10535,10 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10552,8 +10548,9 @@
       <c r="C1" s="1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10564,7 +10561,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10575,7 +10572,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -10586,7 +10583,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10597,7 +10594,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10608,80 +10605,37 @@
         <v>453</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F9AD91-E978-429D-B03C-8398DDF995CE}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="47.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D3" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
